--- a/optimization_transient_HIE_grading.xlsx
+++ b/optimization_transient_HIE_grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C1853-2574-4171-A7BC-01B47FC429C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA75041-EF3B-4C36-84BB-C58C21EBCEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +376,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -539,7 +545,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -898,7 +904,7 @@
   <dimension ref="A1:G577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/optimization_transient_HIE_grading.xlsx
+++ b/optimization_transient_HIE_grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA75041-EF3B-4C36-84BB-C58C21EBCEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F4062-7246-4F2B-80A5-543736B73A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AUC</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>n_estimator</t>
+  </si>
+  <si>
+    <t>used for the paper</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -543,9 +552,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1659,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.72528806584362104</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.72516975308641896</v>
       </c>
@@ -1695,7 +1705,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.72509259259259196</v>
       </c>
@@ -1718,7 +1728,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.72470679012345596</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.72458847736625498</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.72418209876543205</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.72404835390946498</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.72399691358024698</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.72396090534979396</v>
       </c>
@@ -1856,7 +1866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.723904320987654</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.72376543209876498</v>
       </c>
@@ -1902,7 +1912,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.72344135802469101</v>
       </c>
@@ -1925,30 +1935,33 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>0.72328189300411505</v>
       </c>
-      <c r="B45">
-        <v>0.05</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>500</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.72322016460905303</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.72311728395061703</v>
       </c>
@@ -1994,7 +2007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.72304526748971198</v>
       </c>
